--- a/data analysis/analysis after annotation/t1-analysis after annotation.xlsx
+++ b/data analysis/analysis after annotation/t1-analysis after annotation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David-PC\SkyDrive\thesis report\data analysis\analysis after annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\MASc\data analysis\analysis after annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6735" windowHeight="4013" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6735" windowHeight="4013"/>
   </bookViews>
   <sheets>
     <sheet name="t1-s1" sheetId="2" r:id="rId1"/>
@@ -1499,11 +1499,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2419,7 +2419,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3108,7 +3108,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3663,7 +3663,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4372,7 +4372,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5204,7 +5204,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6257,7 +6257,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7465,11 +7465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
